--- a/UgandaScrape/MacroData_WebsiteSources - Copy.xlsx
+++ b/UgandaScrape/MacroData_WebsiteSources - Copy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kitty\NUS\Internship-PartTimeJob\RMI-CRI\Uganda-Scraping\UgandaScrape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E0196722\Desktop\WebScraping\UgandaScrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFA88C3-7A96-4E29-BF0D-FEEF4676B1D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="21312" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21315" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Index" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Liu Yaxin</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>ID_macro_ent</t>
   </si>
@@ -222,13 +221,82 @@
   </si>
   <si>
     <t>https://www.african-markets.com/en/stock-markets/use</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EGX100 Index</t>
+  </si>
+  <si>
+    <t>EGX 100 INDEX</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/egx</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MWSIIDX Index</t>
+  </si>
+  <si>
+    <t>Malawi All Share Index (11 November 1996 - 100)</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>SEMDEX Index</t>
+  </si>
+  <si>
+    <t>Mauritius Stock Exchange SEMDEX Index</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/mse</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/sem</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MOSENEW Index</t>
+  </si>
+  <si>
+    <t>MASI Free Float All Shares Index</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/bvc</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NGSEINDX Index</t>
+  </si>
+  <si>
+    <t>NIGERIA STCK EXC ALL SHR</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/ngse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda </t>
+  </si>
+  <si>
+    <t>RSEASI Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.rse.rw/site/daily_report </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +361,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -303,7 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,19 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -385,12 +446,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -413,49 +485,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,7 +560,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -584,23 +657,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -636,23 +692,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -828,166 +867,329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.09765625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.69921875" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="8.8984375" style="10"/>
+    <col min="1" max="1" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.7109375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
         <v>1474</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="19">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>1094</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="19">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1522</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="21" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>1451</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>1519</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>1462</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1511</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>1453</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>1520</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H4">
+  <sortState ref="A2:H4">
     <sortCondition ref="B1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{341D6F10-B51B-435A-89C7-82B8C8B4144F}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{6830AC73-F1D6-471A-AB79-2CB3C35E4C3F}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{2C96720D-EF72-4FE5-9A64-7D087284D874}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6:H7" r:id="rId5" display="https://www.african-markets.com/en/stock-markets/egx"/>
+    <hyperlink ref="H6" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H7" r:id="rId8"/>
+    <hyperlink ref="H9" r:id="rId9"/>
+    <hyperlink ref="H10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1013,231 +1215,231 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1492</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1493</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>750</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>751</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>752</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>753</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>754</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>755</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>756</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>757</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>758</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>759</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>760</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>761</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>762</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1251,8 +1453,8 @@
     <mergeCell ref="D2:D16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1260,21 +1462,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" customWidth="1"/>
-    <col min="3" max="8" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1300,103 +1502,103 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>514</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>515</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>516</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>517</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>518</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>519</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1410,7 +1612,7 @@
     <mergeCell ref="E2:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/UgandaScrape/MacroData_WebsiteSources - Copy.xlsx
+++ b/UgandaScrape/MacroData_WebsiteSources - Copy.xlsx
@@ -17,7 +17,7 @@
     <sheet name="USD Swap" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stock Index'!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stock Index'!$A$1:$H$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -289,14 +289,14 @@
     <t>RSEASI Index</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.rse.rw/site/daily_report </t>
+    <t>https://www.african-markets.com/en/stock-markets/rse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,14 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -360,12 +352,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -462,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,16 +471,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -504,32 +499,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -871,7 +848,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,263 +865,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="12">
         <v>1474</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="12">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="12">
         <v>1094</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="12">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="12">
+        <v>1451</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1519</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1462</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1511</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1453</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1520</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>1522</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E10" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>1451</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="19">
-        <v>3</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>1519</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>1462</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="19">
-        <v>3</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>1511</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="19">
-        <v>3</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>1453</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="15">
-        <v>3</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>1520</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1154,14 +1131,14 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6:H7" r:id="rId5" display="https://www.african-markets.com/en/stock-markets/egx"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H7" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H10" r:id="rId10"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="H5:H6" r:id="rId5" display="https://www.african-markets.com/en/stock-markets/egx"/>
+    <hyperlink ref="H5" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId7"/>
+    <hyperlink ref="H6" r:id="rId8"/>
+    <hyperlink ref="H8" r:id="rId9"/>
+    <hyperlink ref="H9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -1219,23 +1196,23 @@
       <c r="A2" s="2">
         <v>1492</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1243,203 +1220,203 @@
       <c r="A3" s="2">
         <v>1493</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>750</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>751</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>752</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>753</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>754</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>755</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>756</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>757</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>758</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>759</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>760</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>761</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>762</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1506,99 +1483,99 @@
       <c r="A2" s="3">
         <v>514</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>515</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>516</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>517</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>518</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>519</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>41</v>
       </c>
     </row>

--- a/UgandaScrape/MacroData_WebsiteSources - Copy.xlsx
+++ b/UgandaScrape/MacroData_WebsiteSources - Copy.xlsx
@@ -17,7 +17,7 @@
     <sheet name="USD Swap" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stock Index'!$A$1:$H$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stock Index'!$A$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>ID_macro_ent</t>
   </si>
@@ -281,15 +281,6 @@
   </si>
   <si>
     <t>https://www.african-markets.com/en/stock-markets/ngse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda </t>
-  </si>
-  <si>
-    <t>RSEASI Index</t>
-  </si>
-  <si>
-    <t>https://www.african-markets.com/en/stock-markets/rse</t>
   </si>
 </sst>
 </file>
@@ -448,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -490,6 +481,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -499,14 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,28 +855,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -912,7 +902,7 @@
       <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -938,7 +928,7 @@
       <c r="G3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -964,7 +954,7 @@
       <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -990,7 +980,7 @@
       <c r="G5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1016,7 +1006,7 @@
       <c r="G6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1042,7 +1032,7 @@
       <c r="G7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1068,59 +1058,33 @@
       <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>1520</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="A9" s="12">
+        <v>1522</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12">
         <v>3</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>1522</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="12">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1131,18 +1095,17 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H9" r:id="rId3"/>
     <hyperlink ref="H4" r:id="rId4"/>
     <hyperlink ref="H5:H6" r:id="rId5" display="https://www.african-markets.com/en/stock-markets/egx"/>
     <hyperlink ref="H5" r:id="rId6"/>
     <hyperlink ref="H7" r:id="rId7"/>
     <hyperlink ref="H6" r:id="rId8"/>
     <hyperlink ref="H8" r:id="rId9"/>
-    <hyperlink ref="H9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1196,23 +1159,23 @@
       <c r="A2" s="2">
         <v>1492</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1220,197 +1183,197 @@
       <c r="A3" s="2">
         <v>1493</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="16"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>750</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>751</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>752</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>753</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>754</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>755</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>756</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>757</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>758</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>759</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>760</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>761</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>762</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1483,93 +1446,93 @@
       <c r="A2" s="3">
         <v>514</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>515</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>516</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>517</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>518</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>519</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
